--- a/src/renderer/src/assets/软件数据模板.xlsx
+++ b/src/renderer/src/assets/软件数据模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k\Desktop\Project\cmdd_js\src\renderer\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C870EB74-8383-4F3B-B914-C929A7D301CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8150DD5-4C11-41DA-A535-CDC3A694ED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="11328" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="多因素数据" sheetId="11" r:id="rId1"/>
@@ -26,45 +26,8 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>烟碱mg/支</t>
-  </si>
-  <si>
-    <t>焦油mg/支</t>
-  </si>
-  <si>
-    <t>CO(mg/支)</t>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>透气度/CU</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>定量g/m2</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,28 +43,35 @@
     </r>
   </si>
   <si>
-    <t>滤嘴通风率%</t>
+    <t>示例数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤嘴通风率(%)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>柠檬酸根(设计值）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
+    <t>卷烟纸透气度(CU)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>示例数据</t>
+    <t>卷烟纸定量(g/m²)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷烟纸阻燃剂含量(%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦油(mg/支)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟碱(mg/支)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO(mg/支)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -535,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E359DA23-60AA-46E0-BFA4-3C05E3CCB29F}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -554,40 +524,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6">
         <v>0.40899999999999997</v>

--- a/src/renderer/src/assets/软件数据模板.xlsx
+++ b/src/renderer/src/assets/软件数据模板.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k\Desktop\Project\cmdd_js\src\renderer\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\cmdd_js\src\renderer\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8150DD5-4C11-41DA-A535-CDC3A694ED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC6357-7CBC-4C54-B3B0-3991BBABA693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="11328" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="多因素数据" sheetId="11" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -59,10 +64,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>卷烟纸阻燃剂含量(%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>焦油(mg/支)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -73,6 +74,10 @@
   <si>
     <t>CO(mg/支)</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷烟纸助燃剂用量(%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -506,20 +511,20 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.73046875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.69140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.765625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.53125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="39.265625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.19921875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.3828125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.07421875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.23046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="39.23046875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.23046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.61328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -538,20 +543,20 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="M1" s="2"/>
     </row>
